--- a/biology/Botanique/Sphérobole_étoilé/Sphérobole_étoilé.xlsx
+++ b/biology/Botanique/Sphérobole_étoilé/Sphérobole_étoilé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sph%C3%A9robole_%C3%A9toil%C3%A9</t>
+          <t>Sphérobole_étoilé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphérobole étoilé
-Sphaerobolus stellatus, le Sphérobole étoilé[2], est une espèce de champignons basidiomycètes de la famille des Sphaerobolaceae.
+Sphaerobolus stellatus, le Sphérobole étoilé, est une espèce de champignons basidiomycètes de la famille des Sphaerobolaceae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sph%C3%A9robole_%C3%A9toil%C3%A9</t>
+          <t>Sphérobole_étoilé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le basidiome, qui mesure entre 1 et 3 mm de diamètre, est globuleux et flexible, de couleur blanchâtre à jaune paille. La glèbe est contenue dans une boule (le péridiole) lisse et visqueuse. La membrane externe (l'exopéridium) s'ouvre rapidement en étoile de 4 à 9 branches, qui forme comme une petite coupe et expose le péridiole. Ce dernier est éjecté à distance par déchirement et renversement brusques des couches internes, et se fixe aux structures environnantes grâce à sa couche gluante[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le basidiome, qui mesure entre 1 et 3 mm de diamètre, est globuleux et flexible, de couleur blanchâtre à jaune paille. La glèbe est contenue dans une boule (le péridiole) lisse et visqueuse. La membrane externe (l'exopéridium) s'ouvre rapidement en étoile de 4 à 9 branches, qui forme comme une petite coupe et expose le péridiole. Ce dernier est éjecté à distance par déchirement et renversement brusques des couches internes, et se fixe aux structures environnantes grâce à sa couche gluante.
 	Le basidiome avant et après éjection du péridiole
 </t>
         </is>
